--- a/data/trans_dic/P08_1_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P08_1_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1574671607642566</v>
+        <v>0.1571802592675925</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1429066402907123</v>
+        <v>0.1443150270745481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1434673783022719</v>
+        <v>0.1440107645768751</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2112987129776751</v>
+        <v>0.2092828923905773</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2774588408271795</v>
+        <v>0.2759616583825507</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2602523934416524</v>
+        <v>0.2592547813716416</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2445588228473438</v>
+        <v>0.2419380082047566</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2991861061335598</v>
+        <v>0.2979072462850086</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2380041607507817</v>
+        <v>0.238921206012947</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2084437960305446</v>
+        <v>0.2100084510533705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2029382621166537</v>
+        <v>0.2034854783215933</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2668425278162961</v>
+        <v>0.2674197699479443</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2206340019732571</v>
+        <v>0.2249578515809725</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1927363254389448</v>
+        <v>0.1902639895638268</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1854708006688066</v>
+        <v>0.187179004483417</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2913977758244529</v>
+        <v>0.2908689989071972</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.340798258553597</v>
+        <v>0.3379679383171098</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3156890886380866</v>
+        <v>0.3136106174429784</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2979695153831954</v>
+        <v>0.2958523957490396</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3620090063802934</v>
+        <v>0.3607826504277514</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2855519901387138</v>
+        <v>0.2836775870029904</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2454534053919522</v>
+        <v>0.2479852273956845</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2384161179251574</v>
+        <v>0.2368442834420019</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3168738631646487</v>
+        <v>0.3194533854919344</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09542792781119337</v>
+        <v>0.09507498417002984</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1209835775546939</v>
+        <v>0.122471747460975</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1121349609880015</v>
+        <v>0.1124622687596156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1422378644947372</v>
+        <v>0.1421316311242251</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1783881778092928</v>
+        <v>0.1793903991800519</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2378118116953803</v>
+        <v>0.2368293559706781</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1905048841582256</v>
+        <v>0.1894609038720911</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2340021160117745</v>
+        <v>0.2358416262652992</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1407367750905816</v>
+        <v>0.1412825566319191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1868114565060777</v>
+        <v>0.1883763115905668</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1602121134232743</v>
+        <v>0.159620550490106</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1974058398459059</v>
+        <v>0.1971589763809345</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1333086485575304</v>
+        <v>0.1333640350097326</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1689531021073302</v>
+        <v>0.1713934345240244</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1570891977315127</v>
+        <v>0.158709919636354</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1927778065744228</v>
+        <v>0.1876351657517638</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2255351412293388</v>
+        <v>0.2272131694061572</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2924551280848274</v>
+        <v>0.2929561323343636</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2433355969591193</v>
+        <v>0.2459286325074352</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2782098019052974</v>
+        <v>0.2779192760094285</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.172901865794779</v>
+        <v>0.1727060686590891</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.226401929142565</v>
+        <v>0.2245279477047916</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1961586385497775</v>
+        <v>0.1951735589990131</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2294414689539779</v>
+        <v>0.2299594440698858</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2152091249818595</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1771660875812378</v>
+        <v>0.1771660875812379</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1240530804850823</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06972387982844079</v>
+        <v>0.06875373226124937</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1208208911288473</v>
+        <v>0.1222690305727911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09635685874384015</v>
+        <v>0.09490485559242311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09313732364587123</v>
+        <v>0.09379540540523687</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.146475971173155</v>
+        <v>0.1470971136771252</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.187667194575189</v>
+        <v>0.1851564311425901</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.182733346168314</v>
+        <v>0.1860867421205775</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1600505548612651</v>
+        <v>0.1591971557329877</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1092532777658235</v>
+        <v>0.1099121223881229</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1613536677061901</v>
+        <v>0.1616334269016339</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1465273965474946</v>
+        <v>0.1448958704398124</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1307925505818141</v>
+        <v>0.130429633258314</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1023813977225426</v>
+        <v>0.1009914262030245</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1705321770357173</v>
+        <v>0.1691859662547876</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1391635528410872</v>
+        <v>0.1387620718762353</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1305819617480452</v>
+        <v>0.1321726690735639</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1939929636977021</v>
+        <v>0.1914381513992603</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2427248160333966</v>
+        <v>0.2423371854506262</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2485202295492456</v>
+        <v>0.250437659488664</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1955352070549893</v>
+        <v>0.1964369994032677</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1381715770292165</v>
+        <v>0.1372763895746477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2010604218761089</v>
+        <v>0.2010787247011865</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1842985235929961</v>
+        <v>0.1853493407367323</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1579975364415847</v>
+        <v>0.1567705673597815</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04426454670920155</v>
+        <v>0.04414308482422805</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08697368266001988</v>
+        <v>0.08893611698526646</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09164108336395159</v>
+        <v>0.09174946184512901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08886386887314489</v>
+        <v>0.09211220185983729</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08243084832655312</v>
+        <v>0.08503170534720456</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1708253982679736</v>
+        <v>0.1713971082822716</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1105510410611976</v>
+        <v>0.1143598766602134</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1393851762506529</v>
+        <v>0.1414646820788309</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06657810768129424</v>
+        <v>0.06797075161265714</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1373898042807474</v>
+        <v>0.1349057301766804</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1085535688356927</v>
+        <v>0.1085058397793604</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1203280852941212</v>
+        <v>0.1203947056163728</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08868339471899189</v>
+        <v>0.09086617102341743</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1498426227236022</v>
+        <v>0.1483951059663287</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1513893917361525</v>
+        <v>0.1525338505226029</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1294484241746667</v>
+        <v>0.1291562575371688</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1514179107513816</v>
+        <v>0.1554288871706706</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2488664713761064</v>
+        <v>0.2518825130401217</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1799461449749632</v>
+        <v>0.1812220996195375</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1804616500932744</v>
+        <v>0.1787399734608638</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.106145047317621</v>
+        <v>0.1056185761750168</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1862676694351429</v>
+        <v>0.1850121496587447</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1553267225076481</v>
+        <v>0.1543779552251668</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1470005241177362</v>
+        <v>0.1471658020016316</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09978299120850971</v>
+        <v>0.09878439378284073</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1345602154936723</v>
+        <v>0.1331684681721588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1260140405137112</v>
+        <v>0.1257949531852149</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1335038678318028</v>
+        <v>0.1343020017846744</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1992260309916224</v>
+        <v>0.197626035715806</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2369956202452395</v>
+        <v>0.2387124654639532</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.210934003925266</v>
+        <v>0.2122564942177544</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2114716435964965</v>
+        <v>0.2109468530669497</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1526887558666727</v>
+        <v>0.1527444432754432</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1898612577514883</v>
+        <v>0.1912362734057454</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1726634636686628</v>
+        <v>0.1734310722128208</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1760497878674974</v>
+        <v>0.1768374076695388</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1209217766848347</v>
+        <v>0.1207071759285957</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1593458737384862</v>
+        <v>0.1590437167504335</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.149069278959833</v>
+        <v>0.1498610472971224</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1574293715725046</v>
+        <v>0.1574289283132291</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2271293148312066</v>
+        <v>0.226145527271662</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.267368416968719</v>
+        <v>0.2681471278594005</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2410049267355857</v>
+        <v>0.2403359080914803</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2323504296322868</v>
+        <v>0.2333990015675894</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1714551327947852</v>
+        <v>0.1704829084736824</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2101860351072012</v>
+        <v>0.2100771625978844</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.192578324216633</v>
+        <v>0.1926067369093136</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1922317051343092</v>
+        <v>0.192908143754352</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>91983</v>
+        <v>91815</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>149185</v>
+        <v>150656</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>161831</v>
+        <v>162444</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>105383</v>
+        <v>104378</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>255909</v>
+        <v>254529</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>291464</v>
+        <v>290347</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>308037</v>
+        <v>304736</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>186566</v>
+        <v>185769</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>358547</v>
+        <v>359929</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>451044</v>
+        <v>454430</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>484527</v>
+        <v>485833</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>299483</v>
+        <v>300131</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>128881</v>
+        <v>131407</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>201204</v>
+        <v>198623</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>209211</v>
+        <v>211137</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>145331</v>
+        <v>145068</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>314329</v>
+        <v>311719</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>353549</v>
+        <v>351221</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>375311</v>
+        <v>372644</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>225742</v>
+        <v>224977</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>430177</v>
+        <v>427353</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>531128</v>
+        <v>536606</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>569232</v>
+        <v>565479</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>355634</v>
+        <v>358529</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>102861</v>
+        <v>102481</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>118210</v>
+        <v>119664</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>101911</v>
+        <v>102209</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>136568</v>
+        <v>136466</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>188652</v>
+        <v>189712</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>260228</v>
+        <v>259153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>191738</v>
+        <v>190688</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>261111</v>
+        <v>263164</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>300534</v>
+        <v>301699</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>386949</v>
+        <v>390190</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>306854</v>
+        <v>305721</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>409812</v>
+        <v>409299</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>143693</v>
+        <v>143752</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>165080</v>
+        <v>167464</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>142767</v>
+        <v>144240</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>185093</v>
+        <v>180155</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>238512</v>
+        <v>240287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>320023</v>
+        <v>320571</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>244911</v>
+        <v>247521</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>310440</v>
+        <v>310116</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>369220</v>
+        <v>368802</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>468954</v>
+        <v>465073</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>375703</v>
+        <v>373816</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>476317</v>
+        <v>477393</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>78202</v>
+        <v>77114</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>106940</v>
+        <v>108222</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>79375</v>
+        <v>78179</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>97466</v>
+        <v>98155</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>145588</v>
+        <v>146206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>164358</v>
+        <v>162159</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>140898</v>
+        <v>143484</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>167676</v>
+        <v>166782</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>231129</v>
+        <v>232523</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>284129</v>
+        <v>284622</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>233685</v>
+        <v>231083</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>273895</v>
+        <v>273135</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>114830</v>
+        <v>113271</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>150941</v>
+        <v>149749</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>114637</v>
+        <v>114307</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>136651</v>
+        <v>138316</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>192817</v>
+        <v>190278</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>212577</v>
+        <v>212238</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>191624</v>
+        <v>193102</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>204851</v>
+        <v>205796</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>292307</v>
+        <v>290413</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>354050</v>
+        <v>354082</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>293923</v>
+        <v>295598</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>330866</v>
+        <v>328297</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19795</v>
+        <v>19741</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>43750</v>
+        <v>44737</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>46435</v>
+        <v>46490</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>86725</v>
+        <v>89895</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28122</v>
+        <v>29009</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>77339</v>
+        <v>77598</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>54137</v>
+        <v>56002</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>126800</v>
+        <v>128692</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>52487</v>
+        <v>53585</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>131311</v>
+        <v>128937</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>108163</v>
+        <v>108115</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>226895</v>
+        <v>227021</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39659</v>
+        <v>40635</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>75374</v>
+        <v>74646</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>76709</v>
+        <v>77289</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>126332</v>
+        <v>126047</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>51657</v>
+        <v>53026</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>112671</v>
+        <v>114036</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>88119</v>
+        <v>88744</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>164168</v>
+        <v>162601</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>83680</v>
+        <v>83265</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>178027</v>
+        <v>176827</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>154767</v>
+        <v>153822</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>277190</v>
+        <v>277501</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>322382</v>
+        <v>319155</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>458735</v>
+        <v>453991</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>424325</v>
+        <v>423587</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>464765</v>
+        <v>467543</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>660428</v>
+        <v>655124</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>839610</v>
+        <v>845692</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>743920</v>
+        <v>748585</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>781764</v>
+        <v>779824</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>999470</v>
+        <v>999834</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1319890</v>
+        <v>1329449</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1190355</v>
+        <v>1195647</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1263697</v>
+        <v>1269350</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>390678</v>
+        <v>389984</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>543233</v>
+        <v>542203</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>501958</v>
+        <v>504624</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>548056</v>
+        <v>548055</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>752927</v>
+        <v>749665</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>947212</v>
+        <v>949971</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>849974</v>
+        <v>847615</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>858948</v>
+        <v>862825</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1122311</v>
+        <v>1115947</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1461185</v>
+        <v>1460428</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1327649</v>
+        <v>1327845</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1379851</v>
+        <v>1384707</v>
       </c>
     </row>
     <row r="24">
